--- a/results/pvalue_OFFSIDES_all_transporter_AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_transporter_AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>6.473</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.018</t>
+          <t>6.805</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.905</t>
+          <t>6.713</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.898</t>
+          <t>6.677</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15.129</t>
+          <t>13.997</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
